--- a/ApplicationPerformance/webautomation/webfunctioncase.xlsx
+++ b/ApplicationPerformance/webautomation/webfunctioncase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="6560" windowWidth="24300" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="2080" yWindow="4920" windowWidth="24300" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="browseefuncase" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -416,10 +416,6 @@
     <t>http://www.baidu.com</t>
   </si>
   <si>
-    <t>http://www.baidu.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/Volumes/Mac/users/steel/Library/Application Support/Firefox/Profiles/aidkprvv.default</t>
   </si>
   <si>
@@ -448,13 +444,37 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>百度一下</t>
+    <t>点击_linkname</t>
     <rPh sb="0" eb="1">
-      <t>bai'du</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'xia</t>
-    </rPh>
+      <t>dian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sahitest.com/demo/index.htm</t>
+  </si>
+  <si>
+    <t>点击_classname</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻</t>
+  </si>
+  <si>
+    <t>tj_trmap</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mnav</t>
+  </si>
+  <si>
+    <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -514,17 +534,14 @@
       <name val="Monaco"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
     </font>
   </fonts>
   <fills count="2">
@@ -585,9 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
@@ -892,7 +907,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,8 +967,8 @@
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>76</v>
+      <c r="C3" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -962,7 +977,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -973,7 +988,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -982,7 +997,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -993,7 +1008,7 @@
         <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1002,27 +1017,48 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -1718,7 +1754,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1747,12 +1783,14 @@
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="7" t="s">
-        <v>72</v>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1760,13 +1798,13 @@
         <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1856,10 +1894,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ApplicationPerformance/webautomation/webfunctioncase.xlsx
+++ b/ApplicationPerformance/webautomation/webfunctioncase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="4920" windowWidth="24300" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="13680" yWindow="1160" windowWidth="24300" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="browseefuncase" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="119">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -478,7 +478,195 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_id</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文库</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_xpath</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="kw"]</t>
+  </si>
+  <si>
+    <t>输入_textname</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空输入框_id</t>
+    <rPh sb="0" eb="1">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ru'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空输入框_xpath</t>
+    <rPh sb="0" eb="1">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ru'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空输入框_textname</t>
+    <rPh sb="0" eb="1">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ru'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找_id</t>
+    <rPh sb="0" eb="1">
+      <t>cha'z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找_xpath</t>
+    <rPh sb="0" eb="1">
+      <t>cha'z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找_classname</t>
+    <rPh sb="0" eb="1">
+      <t>cha'z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找_textname</t>
+    <rPh sb="0" eb="1">
+      <t>cha'z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右击_id</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右击_xpath</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右击_classname</t>
+    <rPh sb="0" eb="1">
+      <t>you'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右击_textname</t>
+    <rPh sb="0" eb="1">
+      <t>you'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右击_linkname</t>
+    <rPh sb="0" eb="1">
+      <t>you'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理按钮</t>
+    <rPh sb="0" eb="1">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>an'n</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +749,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -583,8 +771,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,8 +793,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -627,6 +819,7 @@
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -904,16 +1097,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -950,7 +1144,6 @@
         <v>52</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
         <v>3</v>
@@ -970,7 +1163,6 @@
       <c r="C3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
         <v>5</v>
@@ -990,7 +1182,6 @@
       <c r="C4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>3</v>
@@ -1010,7 +1201,6 @@
       <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>3</v>
@@ -1030,14 +1220,13 @@
       <c r="C6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>5</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1050,88 +1239,344 @@
       <c r="C7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="9">
+        <v>123</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25">
+        <v>93</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/ApplicationPerformance/webautomation/webfunctioncase.xlsx
+++ b/ApplicationPerformance/webautomation/webfunctioncase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="1160" windowWidth="24300" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="2260" yWindow="2900" windowWidth="24300" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="browseefuncase" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="153">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -575,10 +575,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -652,10 +648,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -667,6 +659,173 @@
     <rPh sb="2" eb="3">
       <t>an'n</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_tagname</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_cssname</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tj_trnews</t>
+  </si>
+  <si>
+    <t>点击_cssid</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_cssid</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按enter_id</t>
+  </si>
+  <si>
+    <t>kw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按enter_textname</t>
+    <rPh sb="0" eb="1">
+      <t>an</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按enter_xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="su"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagedown_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagedown_xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagedown_textname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageup_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageup_xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageup_textname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ww</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="ww"]</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器全屏</t>
+    <rPh sb="0" eb="1">
+      <t>liu'lan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>quan'p</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置分辨率</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'bian'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920,1080</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +908,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -772,8 +931,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,8 +960,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -820,6 +985,11 @@
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1097,17 +1267,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="79" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1120,7 +1290,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1258,8 +1428,8 @@
       <c r="C8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="9">
-        <v>123</v>
+      <c r="D8" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -1267,7 +1437,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1316,7 +1486,7 @@
       <c r="C11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="9">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
@@ -1338,14 +1508,14 @@
       <c r="C12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
       <c r="F12" s="1">
         <v>6</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1408,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>89</v>
@@ -1425,7 +1595,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>76</v>
@@ -1442,7 +1612,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>85</v>
@@ -1459,7 +1629,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>83</v>
@@ -1476,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>89</v>
@@ -1485,7 +1655,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1493,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>76</v>
@@ -1510,7 +1680,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>85</v>
@@ -1527,7 +1697,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>83</v>
@@ -1544,7 +1714,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>91</v>
@@ -1561,7 +1731,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C25">
         <v>93</v>
@@ -1570,7 +1740,259 @@
         <v>4</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="1">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="1">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="1">
+        <v>6</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="1">
+        <v>6</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="1">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="1">
+        <v>6</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="1">
+        <v>6</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="1">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2621,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ApplicationPerformance/webautomation/webfunctioncase.xlsx
+++ b/ApplicationPerformance/webautomation/webfunctioncase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="2900" windowWidth="24300" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="2280" yWindow="2900" windowWidth="24300" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="browseefuncase" sheetId="5" r:id="rId1"/>
@@ -467,10 +467,6 @@
     <t>tj_trmap</t>
   </si>
   <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mnav</t>
   </si>
   <si>
@@ -826,6 +822,10 @@
   </si>
   <si>
     <t>123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1269,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1388,7 +1388,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1423,13 +1423,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1448,7 +1448,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1467,13 +1467,13 @@
         <v>79</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1481,10 +1481,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D11" s="9">
         <v>3</v>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1503,19 +1503,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="F12" s="1">
         <v>6</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1523,10 +1523,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1542,10 +1542,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1561,16 +1561,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="F15" s="1">
         <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1578,16 +1578,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="1">
         <v>4</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1595,7 +1595,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>76</v>
@@ -1604,7 +1604,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1612,16 +1612,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1629,7 +1629,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>83</v>
@@ -1638,7 +1638,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1646,16 +1646,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>76</v>
@@ -1672,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1680,16 +1680,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="1">
         <v>4</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1697,7 +1697,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>83</v>
@@ -1706,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1714,16 +1714,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F24" s="1">
         <v>4</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1731,7 +1731,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25">
         <v>93</v>
@@ -1740,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1748,13 +1748,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="1">
         <v>6</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1762,16 +1762,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
         <v>119</v>
-      </c>
-      <c r="C27" t="s">
-        <v>120</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1779,16 +1779,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
         <v>121</v>
-      </c>
-      <c r="C28" t="s">
-        <v>122</v>
       </c>
       <c r="F28" s="1">
         <v>5</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1796,19 +1796,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="F29" s="1">
         <v>6</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1816,16 +1816,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
         <v>129</v>
-      </c>
-      <c r="C30" t="s">
-        <v>130</v>
       </c>
       <c r="F30" s="1">
         <v>6</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1833,16 +1833,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
         <v>133</v>
-      </c>
-      <c r="C31" t="s">
-        <v>134</v>
       </c>
       <c r="F31" s="1">
         <v>6</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1850,16 +1850,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F32" s="1">
         <v>6</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1867,16 +1867,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F33" s="1">
         <v>6</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1884,16 +1884,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F34" s="1">
         <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1901,16 +1901,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F35" s="1">
         <v>6</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1918,16 +1918,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F36" s="1">
         <v>6</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1935,16 +1935,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F37" s="1">
         <v>6</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1952,16 +1952,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F38" s="1">
         <v>6</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1969,13 +1969,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1983,16 +1983,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="F40" s="1">
         <v>5</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/ApplicationPerformance/webautomation/webfunctioncase.xlsx
+++ b/ApplicationPerformance/webautomation/webfunctioncase.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Work/Eclipse/PycharmProjects/ApplicationPerformance/webautomation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Work/Eclipse/Git_Blog_automation/ApplicationPerformance/webautomation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2900" windowWidth="24300" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="9240" yWindow="2680" windowWidth="24300" windowHeight="14940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="browseefuncase" sheetId="5" r:id="rId1"/>
-    <sheet name="funcase2" sheetId="1" r:id="rId2"/>
-    <sheet name="browserinfo" sheetId="4" r:id="rId3"/>
+    <sheet name="browseefuncase" sheetId="6" r:id="rId1"/>
+    <sheet name="browseefuncase1" sheetId="5" r:id="rId2"/>
+    <sheet name="funcase2" sheetId="1" r:id="rId3"/>
+    <sheet name="browserinfo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="173">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -717,9 +718,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>按enter_id</t>
-  </si>
-  <si>
     <t>kw</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -735,39 +733,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>按enter_xpath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>//*[@id="su"]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagedown_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagedown_xpath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagedown_textname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageup_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageup_xpath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageup_textname</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -826,6 +796,117 @@
   </si>
   <si>
     <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if包含_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if包含_xpath</t>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if包含_classname</t>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if包含_textname</t>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if包含_linkname</t>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <rPh sb="0" eb="1">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="su"]1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按enter_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按enter_xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagedown_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagedown_xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagedown_textname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageup_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageup_xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageup_textname</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -908,11 +989,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -962,7 +1044,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="28">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -990,6 +1072,7 @@
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1267,10 +1350,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,7 +1790,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1429,7 +1842,7 @@
         <v>89</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -1816,16 +2229,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" t="s">
         <v>128</v>
-      </c>
-      <c r="C30" t="s">
-        <v>129</v>
       </c>
       <c r="F30" s="1">
         <v>6</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1833,16 +2246,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F31" s="1">
         <v>6</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1850,7 +2263,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>119</v>
@@ -1859,7 +2272,7 @@
         <v>6</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1867,16 +2280,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F33" s="1">
         <v>6</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1884,16 +2297,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F34" s="1">
         <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1901,16 +2314,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F35" s="1">
         <v>6</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1918,16 +2331,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F36" s="1">
         <v>6</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1935,10 +2348,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F37" s="1">
         <v>6</v>
@@ -1952,10 +2365,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F38" s="1">
         <v>6</v>
@@ -1969,13 +2382,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1983,10 +2396,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F40" s="1">
         <v>5</v>
@@ -2002,12 +2415,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2616,7 +3029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
